--- a/public/assets/percetage_hrd.xlsx
+++ b/public/assets/percetage_hrd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5BC74-A552-4E6C-B549-A7A2CB8DC654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E40F81B-FAE9-4F19-A4C0-DA41CB21D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0E91BD5-F886-4987-A86F-E74B1B21B84A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0E91BD5-F886-4987-A86F-E74B1B21B84A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>United States Of America</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,17 +122,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FA5380-1870-4B79-B173-F67727C3ED77}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +540,7 @@
         <v>96</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D8" si="0">C3/B3</f>
         <v>6.5395095367847406E-2</v>
       </c>
     </row>
@@ -564,6 +587,36 @@
       <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1532</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2637075718015669E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9853</v>
+      </c>
+      <c r="C8" s="3">
+        <v>987</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10017253628336548</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/percetage_hrd.xlsx
+++ b/public/assets/percetage_hrd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\JnJ-LATAM-Analytics\jnj\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E40F81B-FAE9-4F19-A4C0-DA41CB21D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8845E-95A3-4C04-AD13-EC53F135EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0E91BD5-F886-4987-A86F-E74B1B21B84A}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>United States Of America</t>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +490,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
